--- a/data/scored.xlsx
+++ b/data/scored.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/45bfc195ac2ed6ff/Documents/GitHub/PLpredictingstuff/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{7283B130-C3B9-4290-A160-05F9B5A2F45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D27F5B1D-A54B-4454-9045-20EDF97FF912}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{7283B130-C3B9-4290-A160-05F9B5A2F45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{261AB494-5217-4DBE-AB05-89C7A1EF2786}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C243B634-D8AB-4986-8DB8-7C7F4BDE956D}"/>
   </bookViews>
